--- a/440_msia/01b_hw/01b_hw_q3.xlsx
+++ b/440_msia/01b_hw/01b_hw_q3.xlsx
@@ -1,46 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Berlin" sheetId="1" r:id="rId1"/>
+    <sheet name="Berlin 7 Mil" sheetId="1" r:id="rId1"/>
+    <sheet name="Berlin 5 Mil" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="1" hidden="1">1</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Berlin!$C$8:$C$9</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Berlin 5 Mil'!$C$8:$C$9</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Berlin 7 Mil'!$C$8:$C$9</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Berlin!$F$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Berlin!$F$9</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Berlin!$F$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Berlin!$C$8:$C$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Berlin 5 Mil'!$C$8:$C$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Berlin 7 Mil'!$F$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Berlin 5 Mil'!$F$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Berlin 7 Mil'!$F$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Berlin 5 Mil'!$F$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Berlin 7 Mil'!$F$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Berlin 5 Mil'!$F$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Berlin 7 Mil'!$C$8:$C$9</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Berlin 7 Mil'!$B$20:$L$23</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Berlin 7 Mil'!$H$8</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Berlin 7 Mil'!$N$20</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Berlin!$J$10</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Berlin 5 Mil'!$K$8</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Berlin 7 Mil'!$K$8</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Berlin!$H$3</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Berlin!$I$3</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Berlin!$J$3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">integer</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Berlin 7 Mil'!$H$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Berlin 5 Mil'!$H$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Berlin 7 Mil'!$J$3</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Berlin 5 Mil'!$I$3</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Berlin 7 Mil'!$I$3</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Berlin 5 Mil'!$J$3</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">integer</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Berlin 7 Mil'!$K$3</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">integer</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">integer</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -48,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>Cargo</t>
   </si>
@@ -84,6 +126,12 @@
   </si>
   <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>Trips</t>
+  </si>
+  <si>
+    <t>Flight Counts</t>
   </si>
 </sst>
 </file>
@@ -137,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +205,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,13 +249,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="OpenSolver1"/>
+        <xdr:cNvPr id="274" name="OpenSolver1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276350" y="1333500"/>
-          <a:ext cx="609600" cy="381000"/>
+          <a:off x="1238250" y="1333500"/>
+          <a:ext cx="438150" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -223,6 +280,81 @@
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="275" name="OpenSolver2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="1333500"/>
+          <a:ext cx="609600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -260,99 +392,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>236535</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="OpenSolver2"/>
+        <xdr:cNvPr id="276" name="OpenSolver3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5934075" y="1714500"/>
-          <a:ext cx="609600" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF00FF"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>593725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>233360</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="OpenSolver3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5918200" y="1638300"/>
+          <a:off x="5778500" y="1257300"/>
           <a:ext cx="249235" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -432,13 +489,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="OpenSolver4"/>
+        <xdr:cNvPr id="277" name="OpenSolver4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3105150" y="1333500"/>
-          <a:ext cx="609600" cy="190500"/>
+          <a:off x="2914650" y="1333500"/>
+          <a:ext cx="542925" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -507,13 +564,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="OpenSolver5"/>
+        <xdr:cNvPr id="278" name="OpenSolver5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324350" y="381000"/>
-          <a:ext cx="1000125" cy="190500"/>
+          <a:off x="4067175" y="381000"/>
+          <a:ext cx="838200" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,15 +642,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="OpenSolver6"/>
+        <xdr:cNvPr id="279" name="OpenSolver6"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="3"/>
-          <a:endCxn id="57" idx="1"/>
+          <a:stCxn id="277" idx="3"/>
+          <a:endCxn id="278" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3714750" y="476250"/>
+          <a:off x="3457575" y="476250"/>
           <a:ext cx="609600" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -640,12 +697,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="OpenSolver7"/>
+        <xdr:cNvPr id="280" name="OpenSolver7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3829050" y="825500"/>
+          <a:off x="3571875" y="825500"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -708,6 +765,293 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="OpenSolver8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="1714500"/>
+          <a:ext cx="542925" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="008000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="282" name="OpenSolver9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="381000"/>
+          <a:ext cx="428625" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>≤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="283" name="OpenSolver10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="281" idx="3"/>
+          <a:endCxn id="282" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3457575" y="476250"/>
+          <a:ext cx="1905000" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="284" name="OpenSolver11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="1016000"/>
+          <a:ext cx="381000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -719,13 +1063,1002 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="OpenSolver8"/>
+        <xdr:cNvPr id="285" name="OpenSolver12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3105150" y="1524000"/>
-          <a:ext cx="609600" cy="190500"/>
+          <a:off x="2914650" y="1524000"/>
+          <a:ext cx="542925" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="9900CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="286" name="OpenSolver13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905375" y="381000"/>
+          <a:ext cx="457200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>≤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="287" name="OpenSolver14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="285" idx="3"/>
+          <a:endCxn id="286" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3457575" y="476250"/>
+          <a:ext cx="1447800" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="288" name="OpenSolver15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="920750"/>
+          <a:ext cx="381000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>58480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="289" name="OpenSolver16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="1346200"/>
+          <a:ext cx="52130" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>58480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="OpenSolver17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="1536700"/>
+          <a:ext cx="52130" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="OpenSolver1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="1333500"/>
+          <a:ext cx="438150" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="OpenSolver2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="1333500"/>
+          <a:ext cx="638175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236535</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="OpenSolver3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="1257300"/>
+          <a:ext cx="249235" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>max </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="OpenSolver4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="1333500"/>
+          <a:ext cx="542925" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="OpenSolver5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="381000"/>
+          <a:ext cx="838200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>≤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="OpenSolver6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="107" idx="3"/>
+          <a:endCxn id="108" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3457575" y="476250"/>
+          <a:ext cx="609600" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="OpenSolver7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="825500"/>
+          <a:ext cx="381000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="OpenSolver8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="1524000"/>
+          <a:ext cx="542925" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,13 +2127,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="OpenSolver9"/>
+        <xdr:cNvPr id="112" name="OpenSolver9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324475" y="381000"/>
-          <a:ext cx="609600" cy="190500"/>
+          <a:off x="4905375" y="381000"/>
+          <a:ext cx="457200" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,16 +2205,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="OpenSolver10"/>
+        <xdr:cNvPr id="113" name="OpenSolver10"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="3"/>
-          <a:endCxn id="61" idx="1"/>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="112" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3714750" y="476250"/>
-          <a:ext cx="1609725" cy="1143000"/>
+          <a:off x="3457575" y="476250"/>
+          <a:ext cx="1447800" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -914,25 +2247,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="OpenSolver11"/>
+        <xdr:cNvPr id="114" name="OpenSolver11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4329113" y="920750"/>
+          <a:off x="3990975" y="920750"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1006,13 +2339,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="OpenSolver12"/>
+        <xdr:cNvPr id="115" name="OpenSolver12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3105150" y="1714500"/>
-          <a:ext cx="609600" cy="190500"/>
+          <a:off x="2914650" y="1714500"/>
+          <a:ext cx="542925" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,13 +2414,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="OpenSolver13"/>
+        <xdr:cNvPr id="116" name="OpenSolver13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5934075" y="381000"/>
-          <a:ext cx="609600" cy="190500"/>
+          <a:off x="5362575" y="381000"/>
+          <a:ext cx="428625" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,16 +2492,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="OpenSolver14"/>
+        <xdr:cNvPr id="117" name="OpenSolver14"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="64" idx="3"/>
-          <a:endCxn id="65" idx="1"/>
+          <a:stCxn id="115" idx="3"/>
+          <a:endCxn id="116" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3714750" y="476250"/>
-          <a:ext cx="2219325" cy="1333500"/>
+          <a:off x="3457575" y="476250"/>
+          <a:ext cx="1905000" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1202,24 +2535,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>690563</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="OpenSolver15"/>
+        <xdr:cNvPr id="118" name="OpenSolver15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4633913" y="1016000"/>
+          <a:off x="4219575" y="1016000"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1281,24 +2614,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>71180</xdr:colOff>
+      <xdr:colOff>58480</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="OpenSolver16"/>
+        <xdr:cNvPr id="119" name="OpenSolver16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="1346200"/>
+          <a:off x="1244600" y="1346200"/>
           <a:ext cx="52130" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1366,24 +2699,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>71180</xdr:colOff>
+      <xdr:colOff>58480</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="OpenSolver17"/>
+        <xdr:cNvPr id="120" name="OpenSolver17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="1536700"/>
+          <a:off x="1244600" y="1536700"/>
           <a:ext cx="52130" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1738,27 +3071,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N10"/>
+  <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1768,8 +3107,11 @@
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1791,8 +3133,11 @@
       <c r="J3" s="1">
         <v>64</v>
       </c>
+      <c r="K3" s="9">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1806,7 +3151,13 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1819,12 +3170,19 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1835,11 +3193,23 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <f>F3*C8+F4*C9</f>
-        <v>300000</v>
+        <f>I8 * F3 + I9 * F4</f>
+        <v>6300000</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <f xml:space="preserve"> K3 * C8</f>
+        <v>420</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="1">
+        <f>I8 * C3 + I9 * C4</f>
+        <v>22680000</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1853,11 +3223,17 @@
         <f>C8+C9</f>
         <v>44</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="H9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>K3 * C9</f>
+        <v>504</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="6"/>
       <c r="E10" s="1" t="s">
@@ -1867,9 +3243,468 @@
         <f>2*C8+1*C9</f>
         <v>64</v>
       </c>
-      <c r="J10" s="1">
-        <f>C8*C3+C9*C4</f>
-        <v>1080000</v>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="H2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44</v>
+      </c>
+      <c r="J3" s="9">
+        <v>64</v>
+      </c>
+      <c r="K3" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9">
+        <f>I8 * F3 + I9 * F4</f>
+        <v>4851000</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <f xml:space="preserve"> K3 * C8</f>
+        <v>84</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="9">
+        <f>I8 * C3 + I9 * C4</f>
+        <v>18900000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
+        <f>C8+C9</f>
+        <v>43</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>K3 * C9</f>
+        <v>819</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9">
+        <f>2*C8+1*C9</f>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
